--- a/117Docs/JobStatsBurnupChart3.xlsx
+++ b/117Docs/JobStatsBurnupChart3.xlsx
@@ -196,11 +196,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1580528191"/>
-        <c:axId val="1520270251"/>
+        <c:axId val="1948698855"/>
+        <c:axId val="44467173"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1580528191"/>
+        <c:axId val="1948698855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -232,10 +232,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1520270251"/>
+        <c:crossAx val="44467173"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1520270251"/>
+        <c:axId val="44467173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -266,7 +266,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1580528191"/>
+        <c:crossAx val="1948698855"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -337,7 +337,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>43605.0</v>
+        <v>43591.0</v>
       </c>
       <c r="B2" s="4">
         <v>48.0</v>
@@ -354,7 +354,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>43606.0</v>
+        <v>43592.0</v>
       </c>
       <c r="B3" s="4">
         <v>44.0</v>
@@ -371,7 +371,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>43607.0</v>
+        <v>43593.0</v>
       </c>
       <c r="B4" s="4">
         <v>40.0</v>
@@ -388,7 +388,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>43608.0</v>
+        <v>43594.0</v>
       </c>
       <c r="B5" s="4">
         <v>36.0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>43609.0</v>
+        <v>43595.0</v>
       </c>
       <c r="B6" s="4">
         <v>32.0</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>43610.0</v>
+        <v>43596.0</v>
       </c>
       <c r="B7" s="4">
         <v>29.0</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>43611.0</v>
+        <v>43597.0</v>
       </c>
       <c r="B8" s="4">
         <v>26.0</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>43612.0</v>
+        <v>43598.0</v>
       </c>
       <c r="B9" s="4">
         <v>22.0</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>43613.0</v>
+        <v>43599.0</v>
       </c>
       <c r="B10" s="4">
         <v>19.0</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>43614.0</v>
+        <v>43600.0</v>
       </c>
       <c r="B11" s="4">
         <v>16.0</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>43615.0</v>
+        <v>43601.0</v>
       </c>
       <c r="B12" s="4">
         <v>12.0</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>43616.0</v>
+        <v>43602.0</v>
       </c>
       <c r="B13" s="4">
         <v>8.0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>43617.0</v>
+        <v>43603.0</v>
       </c>
       <c r="B14" s="4">
         <v>4.0</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>43618.0</v>
+        <v>43604.0</v>
       </c>
       <c r="B15" s="2">
         <v>0.0</v>
